--- a/Parameters/parameter.xlsx
+++ b/Parameters/parameter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Workspace/Matlab/convolutional_sparse_coding/Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>PSNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,15 +44,86 @@
     <t>Lambda_n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>分离出的图中出现伪影</t>
+    <rPh sb="0" eb="1">
+      <t>fen li chu de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chu xian wei ying</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei zhuang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ying zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪影图中骨头存在</t>
+    <rPh sb="0" eb="1">
+      <t>wei zhuang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ying zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu tou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cun zai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果较好</t>
+    <rPh sb="0" eb="1">
+      <t>xiao guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪影图消失</t>
+    <rPh sb="0" eb="1">
+      <t>wei hzuang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ying zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +154,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -101,22 +190,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -391,36 +505,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" style="4"/>
+    <col min="1" max="7" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.65</v>
       </c>
@@ -442,11 +557,11 @@
       <c r="G2" s="1">
         <v>27.303850000000001</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="5">
         <v>1.637E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.65</v>
       </c>
@@ -468,11 +583,11 @@
       <c r="G3" s="1">
         <v>27.091045000000001</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="5">
         <v>1.6900000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.65</v>
       </c>
@@ -494,11 +609,11 @@
       <c r="G4" s="1">
         <v>27.091045000000001</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="5">
         <v>1.6900000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.65</v>
       </c>
@@ -520,11 +635,11 @@
       <c r="G5" s="1">
         <v>26.320957</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="5">
         <v>1.854E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.65</v>
       </c>
@@ -535,7 +650,7 @@
         <v>1E-3</v>
       </c>
       <c r="D6" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
         <v>-0.19</v>
@@ -544,13 +659,13 @@
         <v>0.08</v>
       </c>
       <c r="G6" s="1">
-        <v>27.526893999999999</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.586E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28.250181000000001</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.7329999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.65</v>
       </c>
@@ -561,7 +676,7 @@
         <v>1E-3</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="E7" s="1">
         <v>-0.19</v>
@@ -570,13 +685,13 @@
         <v>0.08</v>
       </c>
       <c r="G7" s="1">
-        <v>28.033159000000001</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.4430000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28.372152</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1.7049999999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.65</v>
       </c>
@@ -587,7 +702,7 @@
         <v>1E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E8" s="1">
         <v>-0.19</v>
@@ -596,14 +711,427 @@
         <v>0.08</v>
       </c>
       <c r="G8" s="1">
-        <v>28.442208999999998</v>
-      </c>
-      <c r="H8" s="1">
+        <v>27.526893999999999</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.586E-3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G9" s="1">
+        <v>28.033159000000001</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.4430000000000001E-3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G10" s="1">
+        <v>29.779129000000001</v>
+      </c>
+      <c r="H10" s="5">
         <v>1.294E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H10" s="1"/>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30.197192999999999</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1.1349999999999999E-3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G12" s="1">
+        <v>30.558015999999999</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1.0059999999999999E-3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G13" s="1">
+        <v>27.035316000000002</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1.7030000000000001E-3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G14" s="1">
+        <v>27.927969000000001</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1.487E-3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G15" s="1">
+        <v>26.762436000000001</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1.751E-3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>27.466753000000001</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1.5989999999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>27.035309000000002</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1.7049999999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>30.209284</v>
+      </c>
+      <c r="H18" s="5">
+        <v>7.0299999999999996E-4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>30.495225999999999</v>
+      </c>
+      <c r="H19" s="5">
+        <v>6.5799999999999995E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-0.08</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>30.493946000000001</v>
+      </c>
+      <c r="H20" s="5">
+        <v>6.5899999999999997E-4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-0.08</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>30.564194000000001</v>
+      </c>
+      <c r="H21" s="5">
+        <v>6.4999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-0.03</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>29.729030999999999</v>
+      </c>
+      <c r="H22" s="5">
+        <v>8.2600000000000002E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -612,5 +1140,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Parameters/parameter.xlsx
+++ b/Parameters/parameter.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>PSNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,20 @@
     <rPh sb="3" eb="4">
       <t>xiao shi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果还行</t>
+    <rPh sb="0" eb="1">
+      <t>xiao guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hai xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +217,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -216,6 +230,9 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -505,19 +522,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="10.83203125" style="3"/>
+    <col min="1" max="6" width="10.83203125" style="3"/>
     <col min="8" max="8" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -528,14 +545,17 @@
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.65</v>
       </c>
@@ -555,13 +575,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G2" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H2" s="1">
         <v>27.303850000000001</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>1.637E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.65</v>
       </c>
@@ -581,13 +604,16 @@
         <v>0.05</v>
       </c>
       <c r="G3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H3" s="1">
         <v>27.091045000000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>1.6900000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.65</v>
       </c>
@@ -607,13 +633,16 @@
         <v>0.08</v>
       </c>
       <c r="G4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H4" s="1">
         <v>27.091045000000001</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>1.6900000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.65</v>
       </c>
@@ -633,13 +662,16 @@
         <v>0.08</v>
       </c>
       <c r="G5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H5" s="1">
         <v>26.320957</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>1.854E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.65</v>
       </c>
@@ -659,13 +691,16 @@
         <v>0.08</v>
       </c>
       <c r="G6" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H6" s="1">
         <v>28.250181000000001</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>1.7329999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.65</v>
       </c>
@@ -685,13 +720,16 @@
         <v>0.08</v>
       </c>
       <c r="G7" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H7" s="1">
         <v>28.372152</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>1.7049999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.65</v>
       </c>
@@ -711,16 +749,19 @@
         <v>0.08</v>
       </c>
       <c r="G8" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H8" s="1">
         <v>27.526893999999999</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>1.586E-3</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.65</v>
       </c>
@@ -740,16 +781,19 @@
         <v>0.08</v>
       </c>
       <c r="G9" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H9" s="1">
         <v>28.033159000000001</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>1.4430000000000001E-3</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.65</v>
       </c>
@@ -769,16 +813,19 @@
         <v>0.08</v>
       </c>
       <c r="G10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H10" s="1">
         <v>29.779129000000001</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>1.294E-3</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -798,16 +845,19 @@
         <v>0.08</v>
       </c>
       <c r="G11" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H11" s="1">
         <v>30.197192999999999</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>1.1349999999999999E-3</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0.65</v>
       </c>
@@ -827,16 +877,19 @@
         <v>0.08</v>
       </c>
       <c r="G12" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H12" s="1">
         <v>30.558015999999999</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>1.0059999999999999E-3</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.65</v>
       </c>
@@ -856,16 +909,19 @@
         <v>0.08</v>
       </c>
       <c r="G13" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H13" s="1">
         <v>27.035316000000002</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>1.7030000000000001E-3</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.65</v>
       </c>
@@ -885,16 +941,19 @@
         <v>0.08</v>
       </c>
       <c r="G14" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H14" s="1">
         <v>27.927969000000001</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>1.487E-3</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.65</v>
       </c>
@@ -914,16 +973,19 @@
         <v>0.08</v>
       </c>
       <c r="G15" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H15" s="1">
         <v>26.762436000000001</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
         <v>1.751E-3</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.65</v>
       </c>
@@ -943,13 +1005,16 @@
         <v>0.1</v>
       </c>
       <c r="G16" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H16" s="1">
         <v>27.466753000000001</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
         <v>1.5989999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0.65</v>
       </c>
@@ -969,13 +1034,16 @@
         <v>0.1</v>
       </c>
       <c r="G17" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H17" s="1">
         <v>27.035309000000002</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="5">
         <v>1.7049999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0.3</v>
       </c>
@@ -995,16 +1063,19 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H18" s="1">
         <v>30.209284</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>7.0299999999999996E-4</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.3</v>
       </c>
@@ -1024,13 +1095,16 @@
         <v>0.1</v>
       </c>
       <c r="G19" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H19" s="1">
         <v>30.495225999999999</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="5">
         <v>6.5799999999999995E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.15</v>
       </c>
@@ -1050,16 +1124,19 @@
         <v>0.1</v>
       </c>
       <c r="G20" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H20" s="1">
         <v>30.493946000000001</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="5">
         <v>6.5899999999999997E-4</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0.15</v>
       </c>
@@ -1079,13 +1156,16 @@
         <v>0.1</v>
       </c>
       <c r="G21" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H21" s="1">
         <v>30.564194000000001</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="5">
         <v>6.4999999999999997E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0.15</v>
       </c>
@@ -1105,13 +1185,16 @@
         <v>0.1</v>
       </c>
       <c r="G22" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H22" s="1">
         <v>29.729030999999999</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5">
         <v>8.2600000000000002E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0.15</v>
       </c>
@@ -1122,16 +1205,447 @@
         <v>1E-3</v>
       </c>
       <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>26.210735</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2.4169999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>21.385120000000001</v>
+      </c>
+      <c r="I24" s="5">
+        <v>7.6140000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>25.220694999999999</v>
+      </c>
+      <c r="I25" s="5">
+        <v>3.179E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>27.811474</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1.7030000000000001E-3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>27.474641999999999</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1.8320000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-0.15</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>27.638736999999999</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1.7769999999999999E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-0.15</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>27.981777000000001</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="K29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>26.392386999999999</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2.3089999999999999E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D31" s="1">
         <v>2.1</v>
       </c>
-      <c r="E23" s="1">
-        <v>-0.19</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="5"/>
+      <c r="E31" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>26.591711</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2.2060000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B32" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>27.513506</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1.787E-3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5</v>
+      </c>
+      <c r="H33" s="1">
+        <v>25.516062000000002</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2.8630000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>26.335425999999998</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2.3259999999999999E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H35" s="1">
+        <v>27.250301</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1.8890000000000001E-3</v>
+      </c>
+      <c r="K35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="H36" s="1">
+        <v>27.343530999999999</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.851E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Parameters/parameter.xlsx
+++ b/Parameters/parameter.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>PSNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,8 +204,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -229,25 +239,35 @@
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="21">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -524,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,17 +555,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1626,16 +1646,23 @@
         <v>3</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.19</v>
+        <v>-0.15</v>
       </c>
       <c r="F37" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G37" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>27.564468000000002</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1.763E-3</v>
+      </c>
+      <c r="K37" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G38" s="1"/>
